--- a/natmiOut/OldD7/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,13 +91,7 @@
     <t>Egfr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.309116433180821</v>
+        <v>0.300856</v>
       </c>
       <c r="H2">
-        <v>0.309116433180821</v>
+        <v>0.902568</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.324858143967002</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3248581439670019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24079685714428</v>
+        <v>1.854571666666667</v>
       </c>
       <c r="N2">
-        <v>1.24079685714428</v>
+        <v>5.563715</v>
       </c>
       <c r="O2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="P2">
-        <v>0.01124864785254337</v>
+        <v>0.01651371646154392</v>
       </c>
       <c r="Q2">
-        <v>0.3835506987824125</v>
+        <v>0.5579590133466668</v>
       </c>
       <c r="R2">
-        <v>0.3835506987824125</v>
+        <v>5.02163112012</v>
       </c>
       <c r="S2">
-        <v>0.01124864785254337</v>
+        <v>0.005364615279694485</v>
       </c>
       <c r="T2">
-        <v>0.01124864785254337</v>
+        <v>0.005364615279694485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.309116433180821</v>
+        <v>0.300856</v>
       </c>
       <c r="H3">
-        <v>0.309116433180821</v>
+        <v>0.902568</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.324858143967002</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3248581439670019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>92.8396018807598</v>
+        <v>92.91372433333333</v>
       </c>
       <c r="N3">
-        <v>92.8396018807598</v>
+        <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712995</v>
       </c>
       <c r="P3">
-        <v>0.8416526704705836</v>
+        <v>0.8273343794712996</v>
       </c>
       <c r="Q3">
-        <v>28.69824659130791</v>
+        <v>27.95365144802933</v>
       </c>
       <c r="R3">
-        <v>28.69824659130791</v>
+        <v>251.582863032264</v>
       </c>
       <c r="S3">
-        <v>0.8416526704705836</v>
+        <v>0.2687663109551376</v>
       </c>
       <c r="T3">
-        <v>0.8416526704705836</v>
+        <v>0.2687663109551376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.309116433180821</v>
+        <v>0.300856</v>
       </c>
       <c r="H4">
-        <v>0.309116433180821</v>
+        <v>0.902568</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.324858143967002</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3248581439670019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156129563433599</v>
+        <v>0.162136</v>
       </c>
       <c r="N4">
-        <v>0.156129563433599</v>
+        <v>0.4864080000000001</v>
       </c>
       <c r="O4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133186</v>
       </c>
       <c r="P4">
-        <v>0.001415418219609232</v>
+        <v>0.001443712303133187</v>
       </c>
       <c r="Q4">
-        <v>0.04826221376267285</v>
+        <v>0.04877958841600001</v>
       </c>
       <c r="R4">
-        <v>0.04826221376267285</v>
+        <v>0.4390162957440001</v>
       </c>
       <c r="S4">
-        <v>0.001415418219609232</v>
+        <v>0.0004690016992181726</v>
       </c>
       <c r="T4">
-        <v>0.001415418219609232</v>
+        <v>0.0004690016992181726</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.300856</v>
+      </c>
+      <c r="H5">
+        <v>0.902568</v>
+      </c>
+      <c r="I5">
+        <v>0.324858143967002</v>
+      </c>
+      <c r="J5">
+        <v>0.3248581439670019</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>17.37449166666667</v>
+      </c>
+      <c r="N5">
+        <v>52.123475</v>
+      </c>
+      <c r="O5">
+        <v>0.1547081917640233</v>
+      </c>
+      <c r="P5">
+        <v>0.1547081917640233</v>
+      </c>
+      <c r="Q5">
+        <v>5.227220064866668</v>
+      </c>
+      <c r="R5">
+        <v>47.0449805838</v>
+      </c>
+      <c r="S5">
+        <v>0.05025821603295164</v>
+      </c>
+      <c r="T5">
+        <v>0.05025821603295162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.28424</v>
+      </c>
+      <c r="H6">
+        <v>0.85272</v>
+      </c>
+      <c r="I6">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="J6">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.854571666666667</v>
+      </c>
+      <c r="N6">
+        <v>5.563715</v>
+      </c>
+      <c r="O6">
+        <v>0.01651371646154392</v>
+      </c>
+      <c r="P6">
+        <v>0.01651371646154392</v>
+      </c>
+      <c r="Q6">
+        <v>0.5271434505333333</v>
+      </c>
+      <c r="R6">
+        <v>4.744291054800001</v>
+      </c>
+      <c r="S6">
+        <v>0.005068332514892041</v>
+      </c>
+      <c r="T6">
+        <v>0.005068332514892042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.28424</v>
+      </c>
+      <c r="H7">
+        <v>0.85272</v>
+      </c>
+      <c r="I7">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="J7">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>92.91372433333333</v>
+      </c>
+      <c r="N7">
+        <v>278.741173</v>
+      </c>
+      <c r="O7">
+        <v>0.8273343794712995</v>
+      </c>
+      <c r="P7">
+        <v>0.8273343794712996</v>
+      </c>
+      <c r="Q7">
+        <v>26.40979700450666</v>
+      </c>
+      <c r="R7">
+        <v>237.68817304056</v>
+      </c>
+      <c r="S7">
+        <v>0.2539225949487074</v>
+      </c>
+      <c r="T7">
+        <v>0.2539225949487074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.28424</v>
+      </c>
+      <c r="H8">
+        <v>0.85272</v>
+      </c>
+      <c r="I8">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="J8">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.162136</v>
+      </c>
+      <c r="N8">
+        <v>0.4864080000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.001443712303133186</v>
+      </c>
+      <c r="P8">
+        <v>0.001443712303133187</v>
+      </c>
+      <c r="Q8">
+        <v>0.04608553664000001</v>
+      </c>
+      <c r="R8">
+        <v>0.4147698297600001</v>
+      </c>
+      <c r="S8">
+        <v>0.0004430991669960823</v>
+      </c>
+      <c r="T8">
+        <v>0.0004430991669960824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.28424</v>
+      </c>
+      <c r="H9">
+        <v>0.85272</v>
+      </c>
+      <c r="I9">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="J9">
+        <v>0.3069165276450548</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.37449166666667</v>
+      </c>
+      <c r="N9">
+        <v>52.123475</v>
+      </c>
+      <c r="O9">
+        <v>0.1547081917640233</v>
+      </c>
+      <c r="P9">
+        <v>0.1547081917640233</v>
+      </c>
+      <c r="Q9">
+        <v>4.938525511333333</v>
+      </c>
+      <c r="R9">
+        <v>44.446729602</v>
+      </c>
+      <c r="S9">
+        <v>0.04748250101445931</v>
+      </c>
+      <c r="T9">
+        <v>0.04748250101445931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.309116433180821</v>
-      </c>
-      <c r="H5">
-        <v>0.309116433180821</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>16.0697834802806</v>
-      </c>
-      <c r="N5">
-        <v>16.0697834802806</v>
-      </c>
-      <c r="O5">
-        <v>0.145683263457264</v>
-      </c>
-      <c r="P5">
-        <v>0.145683263457264</v>
-      </c>
-      <c r="Q5">
-        <v>4.967434151412419</v>
-      </c>
-      <c r="R5">
-        <v>4.967434151412419</v>
-      </c>
-      <c r="S5">
-        <v>0.145683263457264</v>
-      </c>
-      <c r="T5">
-        <v>0.145683263457264</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.341019</v>
+      </c>
+      <c r="H10">
+        <v>1.023057</v>
+      </c>
+      <c r="I10">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="J10">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.854571666666667</v>
+      </c>
+      <c r="N10">
+        <v>5.563715</v>
+      </c>
+      <c r="O10">
+        <v>0.01651371646154392</v>
+      </c>
+      <c r="P10">
+        <v>0.01651371646154392</v>
+      </c>
+      <c r="Q10">
+        <v>0.6324441751950001</v>
+      </c>
+      <c r="R10">
+        <v>5.691997576755001</v>
+      </c>
+      <c r="S10">
+        <v>0.006080768666957393</v>
+      </c>
+      <c r="T10">
+        <v>0.006080768666957394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.341019</v>
+      </c>
+      <c r="H11">
+        <v>1.023057</v>
+      </c>
+      <c r="I11">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="J11">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>92.91372433333333</v>
+      </c>
+      <c r="N11">
+        <v>278.741173</v>
+      </c>
+      <c r="O11">
+        <v>0.8273343794712995</v>
+      </c>
+      <c r="P11">
+        <v>0.8273343794712996</v>
+      </c>
+      <c r="Q11">
+        <v>31.685345358429</v>
+      </c>
+      <c r="R11">
+        <v>285.168108225861</v>
+      </c>
+      <c r="S11">
+        <v>0.3046454735674545</v>
+      </c>
+      <c r="T11">
+        <v>0.3046454735674545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.341019</v>
+      </c>
+      <c r="H12">
+        <v>1.023057</v>
+      </c>
+      <c r="I12">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="J12">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.162136</v>
+      </c>
+      <c r="N12">
+        <v>0.4864080000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.001443712303133186</v>
+      </c>
+      <c r="P12">
+        <v>0.001443712303133187</v>
+      </c>
+      <c r="Q12">
+        <v>0.05529145658400001</v>
+      </c>
+      <c r="R12">
+        <v>0.4976231092560001</v>
+      </c>
+      <c r="S12">
+        <v>0.0005316114369189313</v>
+      </c>
+      <c r="T12">
+        <v>0.0005316114369189313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.341019</v>
+      </c>
+      <c r="H13">
+        <v>1.023057</v>
+      </c>
+      <c r="I13">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="J13">
+        <v>0.3682253283879432</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.37449166666667</v>
+      </c>
+      <c r="N13">
+        <v>52.123475</v>
+      </c>
+      <c r="O13">
+        <v>0.1547081917640233</v>
+      </c>
+      <c r="P13">
+        <v>0.1547081917640233</v>
+      </c>
+      <c r="Q13">
+        <v>5.925031773675</v>
+      </c>
+      <c r="R13">
+        <v>53.325285963075</v>
+      </c>
+      <c r="S13">
+        <v>0.05696747471661237</v>
+      </c>
+      <c r="T13">
+        <v>0.05696747471661237</v>
       </c>
     </row>
   </sheetData>
